--- a/Тестирование кинопоиск.xlsx
+++ b/Тестирование кинопоиск.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natsuki Nika\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natsuki Nika\git\CL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1DCD05-457A-4872-A02A-BD0959BCB534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78A61FC-E1EB-4583-A6BB-8C8051A25C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklists" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCase" sheetId="3" r:id="rId3"/>
-    <sheet name="BagReport" sheetId="4" r:id="rId4"/>
+    <sheet name="TestCase" sheetId="3" r:id="rId2"/>
+    <sheet name="BagReport" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="156">
   <si>
     <t>Проект</t>
   </si>
@@ -365,13 +365,181 @@
   </si>
   <si>
     <t>Успешный вход в аккаунт</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro
+Google Chrome v.136.0.7103.114</t>
+  </si>
+  <si>
+    <t>На главной странице сайта происходит наслаивание галереи фотографий на главную фотографию</t>
+  </si>
+  <si>
+    <t>Обычная</t>
+  </si>
+  <si>
+    <t>Средняя</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/</t>
+  </si>
+  <si>
+    <t>Отсутствие фотографии в карусели фотографий
+на главной странице</t>
+  </si>
+  <si>
+    <t>На главной странице сайта,в разделе "Наш главный производитель",в карусели фотографий одна из них не прогружена,вместо нее заглушка</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Прокрутить страницу до раздела "Наш главный производитель"</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в раздел "О нас"</t>
+  </si>
+  <si>
+    <t>Некорректная форма номера телефона</t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>Высокая</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в раздел "О нас"
+3.Перейти к форме бронирования питомца</t>
+  </si>
+  <si>
+    <t>Некорректная форма пожеланий</t>
+  </si>
+  <si>
+    <t>В разделе "О нас",вместо заголовка указана надпись "Напишите какой то текст!"</t>
+  </si>
+  <si>
+    <t>В разделе "О нас", в форме бронирования питомца некорректная форма номера российского телефона(помещается только 10 цифр)</t>
+  </si>
+  <si>
+    <t>В разделе "О нас",в форме бронирования питомца невозможно написать пожелания,форма не принимает символы</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в раздел "О нас"
+3.Перейти к форме бронирования питомца
+4.Перейти к форме Особые пожелания</t>
+  </si>
+  <si>
+    <t>Некорректная форма выбора города</t>
+  </si>
+  <si>
+    <t>В разделе "О нас",в форме бронирования питомца невозможно выбрать или написать город,отсутствует форма</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в раздел "О нас"
+3.Перейти к форме бронирования питомца
+4.Перейти к пункту выбора города</t>
+  </si>
+  <si>
+    <t>В разделе "О нас",в форме бронирования питомца некорректная кнопка "Подтвердить отправку",кнопка светится только при наведении на нее,все остальное время она не видна</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в раздел "О нас"
+3.Перейти к форме бронирования питомца
+4.Перейти к кнопке "Подтвердить отправку"</t>
+  </si>
+  <si>
+    <t>Не рабочая форма отправки почтового адреса</t>
+  </si>
+  <si>
+    <t>В разделе "О нас",в футере не рабочая кнопка подписаться в форме отправки почтового адреса</t>
+  </si>
+  <si>
+    <t>Низкая</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в раздел "О нас"
+3.Перейти в футер сайта
+4.Перейти к форме подписки на фотографии</t>
+  </si>
+  <si>
+    <t>В разделе "О нас",в футере кнопка "Send" светится только при наведении на нее,все остальное время она не видна</t>
+  </si>
+  <si>
+    <t>Ссылки на соцсети не ведут на соцсети сайта</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в футер сайта
+4.Перейти к кнопке "Send"</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в футер сайта
+3.Перейти к иконкам соц сетей</t>
+  </si>
+  <si>
+    <t>Некорректная кнопка в разделе "О нас"</t>
+  </si>
+  <si>
+    <t>Отсутствие заговка в хедере в разделе "О Нас"</t>
+  </si>
+  <si>
+    <t>Наслаивание фотографий в хедере на главной странице сайта</t>
+  </si>
+  <si>
+    <t>Несовпадение цвета надписи телефона питомника в футере сайта</t>
+  </si>
+  <si>
+    <t>В футере сайта ссылки на социальные сети расположенные в футере сайта,не ведут на сами сайты питомника</t>
+  </si>
+  <si>
+    <t>В футере сайта для номера телефона используется цвет #FF9900,цвет должен соответствовать основному цвету равному #FF9D3B</t>
+  </si>
+  <si>
+    <t>Обычный</t>
+  </si>
+  <si>
+    <t>1.Зайти на сайт https://guru.qahacking.ru/
+2.Перейти в футер сайта</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Сайт,который является подопытным:https://guru.qahacking.ru/
+В данном документе нет вложений,т.к это не очень красисиво и корректно выглядит, для вложений можете перейти в Jira,там я также дублировала данные баги :)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,8 +554,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,28 +673,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -526,9 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -540,9 +705,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +715,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,154 +1058,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G13" t="s">
@@ -1009,549 +1213,549 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="13" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="13" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="13" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="13" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="13" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="13" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="13" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="13" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="13" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="13" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="13" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="13" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="13" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="13" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="4" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="13" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="13" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="13" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="13" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="13" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="13" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="13" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="13" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="13" t="s">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="13" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="13" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="10"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="13" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="13" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="13" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="10"/>
+      <c r="F55" s="5"/>
       <c r="H55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="13" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="10"/>
+      <c r="F56" s="5"/>
       <c r="H56" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="13" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="10"/>
+      <c r="F57" s="5"/>
       <c r="H57" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="13" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="10"/>
+      <c r="F58" s="5"/>
       <c r="H58" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="13" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F59" s="10"/>
+      <c r="F59" s="5"/>
       <c r="H59" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="13" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="10"/>
+      <c r="F60" s="5"/>
       <c r="H60" t="s">
         <v>87</v>
       </c>
@@ -1578,6 +1782,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="D11:D13"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B60"/>
     <mergeCell ref="C45:C60"/>
@@ -1588,28 +1811,9 @@
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1629,40 +1833,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C038CBF-092B-4BCE-84A4-59C45D45D0A5}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C87182-2B99-445C-9E5B-9DA09997ACB0}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1678,28 +1852,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1713,19 +1887,19 @@
       <c r="C2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="12" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3224,16 +3398,1293 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246E55E4-3CE5-4009-A0DD-C45359D2DC44}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="26"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="26"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="26"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="26"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="26"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="26"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="26"/>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="26"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="26"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="26"/>
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="26"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="26"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="26"/>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="26"/>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="26"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="26"/>
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="26"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="26"/>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="26"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="26"/>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="26"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="26"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="26"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="26"/>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="26"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="26"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="26"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="26"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="26"/>
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="26"/>
+      <c r="D55" s="28"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="26"/>
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="26"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="26"/>
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="26"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="26"/>
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="26"/>
+      <c r="D61" s="28"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="26"/>
+      <c r="D62" s="28"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="26"/>
+      <c r="D63" s="28"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="26"/>
+      <c r="D64" s="28"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="26"/>
+      <c r="D65" s="28"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="26"/>
+      <c r="D66" s="28"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="26"/>
+      <c r="D67" s="28"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="26"/>
+      <c r="D68" s="28"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="26"/>
+      <c r="D69" s="28"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="26"/>
+      <c r="D70" s="28"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="26"/>
+      <c r="D71" s="28"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="26"/>
+      <c r="D72" s="28"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="26"/>
+      <c r="D73" s="28"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="26"/>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="26"/>
+      <c r="D75" s="28"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="26"/>
+      <c r="D76" s="28"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="26"/>
+      <c r="D77" s="28"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="26"/>
+      <c r="D78" s="28"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="26"/>
+      <c r="D79" s="28"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="26"/>
+      <c r="D80" s="28"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="26"/>
+      <c r="D81" s="28"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="26"/>
+      <c r="D82" s="28"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="26"/>
+      <c r="D83" s="28"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="26"/>
+      <c r="D84" s="28"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="26"/>
+      <c r="D85" s="28"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="26"/>
+      <c r="D86" s="28"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="26"/>
+      <c r="D87" s="28"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="26"/>
+      <c r="D88" s="28"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="26"/>
+      <c r="D89" s="28"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="26"/>
+      <c r="D90" s="28"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="26"/>
+      <c r="D91" s="28"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="26"/>
+      <c r="D92" s="28"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="26"/>
+      <c r="D93" s="28"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="26"/>
+      <c r="D94" s="28"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="26"/>
+      <c r="D95" s="28"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="26"/>
+      <c r="D96" s="28"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="26"/>
+      <c r="D97" s="28"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="26"/>
+      <c r="D98" s="28"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="26"/>
+      <c r="D99" s="28"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="26"/>
+      <c r="D100" s="28"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="26"/>
+      <c r="D101" s="28"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="26"/>
+      <c r="D102" s="28"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="26"/>
+      <c r="D103" s="28"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="26"/>
+      <c r="D104" s="28"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="26"/>
+      <c r="D105" s="28"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="26"/>
+      <c r="D106" s="28"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="26"/>
+      <c r="D107" s="28"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="26"/>
+      <c r="D108" s="28"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="26"/>
+      <c r="D109" s="28"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="26"/>
+      <c r="D110" s="28"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="26"/>
+      <c r="D111" s="28"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="26"/>
+      <c r="D112" s="28"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="26"/>
+      <c r="D113" s="28"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="26"/>
+      <c r="D114" s="28"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="26"/>
+      <c r="D115" s="28"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="26"/>
+      <c r="D116" s="28"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="26"/>
+      <c r="D117" s="28"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="26"/>
+      <c r="D118" s="28"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="26"/>
+      <c r="D119" s="28"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="26"/>
+      <c r="D120" s="28"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="26"/>
+      <c r="D121" s="28"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="26"/>
+      <c r="D122" s="28"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="26"/>
+      <c r="D123" s="28"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="26"/>
+      <c r="D124" s="28"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="26"/>
+      <c r="D125" s="28"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="26"/>
+      <c r="D126" s="28"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="26"/>
+      <c r="D127" s="28"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="26"/>
+      <c r="D128" s="28"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="26"/>
+      <c r="D129" s="28"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="26"/>
+      <c r="D130" s="28"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="26"/>
+      <c r="D131" s="28"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="26"/>
+      <c r="D132" s="28"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="26"/>
+      <c r="D133" s="28"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="26"/>
+      <c r="D134" s="28"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="26"/>
+      <c r="D135" s="28"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="26"/>
+      <c r="D136" s="28"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="26"/>
+      <c r="D137" s="28"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="26"/>
+      <c r="D138" s="28"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139" s="26"/>
+      <c r="D139" s="28"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140" s="26"/>
+      <c r="D140" s="28"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="26"/>
+      <c r="D141" s="28"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="26"/>
+      <c r="D142" s="28"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="26"/>
+      <c r="D143" s="28"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="26"/>
+      <c r="D144" s="28"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="26"/>
+      <c r="D145" s="28"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146" s="26"/>
+      <c r="D146" s="28"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B147" s="26"/>
+      <c r="D147" s="28"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B148" s="26"/>
+      <c r="D148" s="28"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="26"/>
+      <c r="D149" s="28"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150" s="26"/>
+      <c r="D150" s="28"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151" s="26"/>
+      <c r="D151" s="28"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152" s="26"/>
+      <c r="D152" s="28"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153" s="26"/>
+      <c r="D153" s="28"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154" s="26"/>
+      <c r="D154" s="28"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155" s="26"/>
+      <c r="D155" s="28"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B156" s="26"/>
+      <c r="D156" s="28"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B157" s="26"/>
+      <c r="D157" s="28"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="26"/>
+      <c r="D158" s="28"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B159" s="26"/>
+      <c r="D159" s="28"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B160" s="26"/>
+      <c r="D160" s="28"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161" s="26"/>
+      <c r="D161" s="28"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162" s="26"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="26"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164" s="26"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B165" s="26"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166" s="26"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B167" s="26"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B168" s="26"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B169" s="26"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B170" s="26"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B171" s="26"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="26"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="26"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B174" s="26"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B175" s="26"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B176" s="26"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="26"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="26"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="26"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="26"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="26"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="26"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="26"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="26"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="26"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="26"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="26"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="26"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="26"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="26"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="26"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="26"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="26"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="26"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="26"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="26"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="26"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="26"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="26"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="26"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="26"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="26"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="26"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="26"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="26"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="26"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="26"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="26"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="26"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="26"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="26"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="26"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="26"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="26"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="26"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="26"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="26"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="26"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="26"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="26"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="26"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="26"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="26"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="26"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="26"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="26"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="26"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="26"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="26"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="26"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="26"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="26"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="26"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="26"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="26"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="26"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="26"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="26"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="26"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="26"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="26"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="26"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="26"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="26"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="26"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="26"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="26"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" s="26"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="26"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="26"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="26"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="26"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="26"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="26"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="26"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" s="26"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="26"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="26"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C038CBF-092B-4BCE-84A4-59C45D45D0A5}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>